--- a/examples/OpenHab-KNX/OpenHab-KNX-Definitions.xlsx
+++ b/examples/OpenHab-KNX/OpenHab-KNX-Definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/OpenHab-KNX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B4C056-D96C-D541-A977-7DC428C7B70A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338407AD-77CE-1240-803D-6130AB588299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
   <si>
     <t>Type</t>
   </si>
@@ -477,6 +477,9 @@
   telnet_port=6802,
   refresh_interval_disk_usage=1
 ]</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
   </si>
 </sst>
 </file>
@@ -862,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111F246E-EEF3-DD4C-B295-A2DBE68EE3E6}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,6 +932,14 @@
       </c>
       <c r="B7" s="8" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
